--- a/z_db/Data/kelasMapel/x/mp2.xlsx
+++ b/z_db/Data/kelasMapel/x/mp2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ketuntasan\z_db\Data\kelasMapel\x\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Laravel\ketuntasan\z_db\Data\kelasMapel\x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DAE145-49E1-4E51-B89C-8B2F9E4DDC54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C0B0E-0132-4AFD-B5CE-D6557B4473F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{15AB2BBF-ED13-4B5E-B4AF-6647F79E46D6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <r>
       <rPr>
@@ -107,6 +107,9 @@
       </rPr>
       <t>KODE GURU MAPEL</t>
     </r>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,112 +539,154 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6">
         <v>59.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B9" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B10" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="6">
         <v>53.1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="6">
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B12" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B15" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="6">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6">
         <v>10.1</v>
